--- a/data/trans_orig/P22$concerEmp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22$concerEmp-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13993</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7148</v>
+        <v>7791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23246</v>
+        <v>23061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02022557970954877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01033200116802485</v>
+        <v>0.01126129454085426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03359980032283233</v>
+        <v>0.03333196948597517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4826</v>
+        <v>5194</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001403232386925511</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007019142591254511</v>
+        <v>0.007554648257317405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>14958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8532</v>
+        <v>8635</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24704</v>
+        <v>24338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01084410179329709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006185204107343986</v>
+        <v>0.006259930643778349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01790965733566984</v>
+        <v>0.01764427746015481</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9066</v>
+        <v>10151</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005721509800563218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001444520992487407</v>
+        <v>0.001446128808382415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01310393366935718</v>
+        <v>0.01467160247126062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>7950</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3112</v>
+        <v>3236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15610</v>
+        <v>15617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01156414857112154</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004526669996361863</v>
+        <v>0.004706671902579795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02270539735604617</v>
+        <v>0.02271606398821292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -857,19 +857,19 @@
         <v>11909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6244</v>
+        <v>6004</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20948</v>
+        <v>20573</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008633611339182024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004526681794845798</v>
+        <v>0.004353008376165052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01518671779669026</v>
+        <v>0.01491509651717371</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>20200</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12333</v>
+        <v>12000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30249</v>
+        <v>29967</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02919710912829159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01782636921504519</v>
+        <v>0.01734444437977483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0437212539180098</v>
+        <v>0.0433145376724378</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -907,19 +907,19 @@
         <v>25327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16527</v>
+        <v>16876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35997</v>
+        <v>36852</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03683859547593065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02403919352338104</v>
+        <v>0.02454625849828746</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05235894178915057</v>
+        <v>0.05360280321578802</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -928,19 +928,19 @@
         <v>45527</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32547</v>
+        <v>34183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60931</v>
+        <v>61375</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03300579643965311</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02359559031103101</v>
+        <v>0.0247815059282727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0441736002257587</v>
+        <v>0.04449555844133216</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4381</v>
+        <v>4950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18471</v>
+        <v>19398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01475320682003534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00633276403922747</v>
+        <v>0.00715476634553933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0266984445614441</v>
+        <v>0.02803711750188708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -978,19 +978,19 @@
         <v>14410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8185</v>
+        <v>8430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22860</v>
+        <v>22617</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02096030507797665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01190494995121097</v>
+        <v>0.01226179256846962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03325067218868335</v>
+        <v>0.03289756488846775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -999,19 +999,19 @@
         <v>24617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16013</v>
+        <v>16672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36469</v>
+        <v>36996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01784696309988519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01160931420320367</v>
+        <v>0.01208691244132031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02643919231582267</v>
+        <v>0.02682077796499546</v>
       </c>
     </row>
     <row r="8">
@@ -1122,19 +1122,19 @@
         <v>667251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>655459</v>
+        <v>656634</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>675133</v>
+        <v>676111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9644359209604796</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9473929197990314</v>
+        <v>0.949090971108315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9758286535524153</v>
+        <v>0.9772416929998681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>664</v>
@@ -1143,19 +1143,19 @@
         <v>656104</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>644888</v>
+        <v>642354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>665680</v>
+        <v>665557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9543274608356809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9380131136643542</v>
+        <v>0.9343269732206811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9682562096856605</v>
+        <v>0.9680776881221856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1321</v>
@@ -1164,19 +1164,19 @@
         <v>1323355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1307507</v>
+        <v>1307363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1337758</v>
+        <v>1337203</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9593976388693757</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9479083111357378</v>
+        <v>0.9478043956371126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9698399445504333</v>
+        <v>0.9694371009672306</v>
       </c>
     </row>
     <row r="11">
@@ -1197,19 +1197,19 @@
         <v>25037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16702</v>
+        <v>15667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38098</v>
+        <v>36995</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02605836128879195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01738390923140223</v>
+        <v>0.01630637742983669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03965296353198584</v>
+        <v>0.0385047658239429</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1218,19 +1218,19 @@
         <v>4391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10189</v>
+        <v>10028</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004534826854380182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001189005123542579</v>
+        <v>0.001180314319945962</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0105211940166444</v>
+        <v>0.01035533445443242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -1239,19 +1239,19 @@
         <v>29428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19290</v>
+        <v>20067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42230</v>
+        <v>41877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01525422239685679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009999215379718849</v>
+        <v>0.0104019904811125</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02189014996961918</v>
+        <v>0.02170699235669791</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>15446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9272</v>
+        <v>9135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25287</v>
+        <v>25563</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01607644903666242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009650294806403521</v>
+        <v>0.009508163708871814</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02631859118276592</v>
+        <v>0.026606362319271</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1289,19 +1289,19 @@
         <v>27586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18838</v>
+        <v>17942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40393</v>
+        <v>40005</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02848640638446816</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01945303574737513</v>
+        <v>0.01852747600384777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04171152272554416</v>
+        <v>0.04131072862891325</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -1310,19 +1310,19 @@
         <v>43032</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30953</v>
+        <v>30832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57644</v>
+        <v>57958</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02230585820908531</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01604471360061131</v>
+        <v>0.01598205539990381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02988009530397512</v>
+        <v>0.03004252245661162</v>
       </c>
     </row>
     <row r="13">
@@ -1339,19 +1339,19 @@
         <v>28777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18925</v>
+        <v>18809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41834</v>
+        <v>41931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02995104151838297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01969751196160456</v>
+        <v>0.01957631695044944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04354080454194958</v>
+        <v>0.04364142379294681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1360,19 +1360,19 @@
         <v>29047</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19754</v>
+        <v>19390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42702</v>
+        <v>42806</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02999542384447918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02039895405161917</v>
+        <v>0.02002303592948837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04409588230002447</v>
+        <v>0.04420291813392949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1381,19 +1381,19 @@
         <v>57824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45327</v>
+        <v>43927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76104</v>
+        <v>76535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02997332005339551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02349532559551737</v>
+        <v>0.02276986238408436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03944887959296905</v>
+        <v>0.03967224066359121</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>16739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9932</v>
+        <v>9278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27533</v>
+        <v>27131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01742186629590112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01033747095989964</v>
+        <v>0.009656321523308338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02865648274459512</v>
+        <v>0.02823791200442618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1431,19 +1431,19 @@
         <v>18590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11719</v>
+        <v>12005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30091</v>
+        <v>28939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01919633226343626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01210135193388301</v>
+        <v>0.01239715687008568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03107308378191302</v>
+        <v>0.02988389089699696</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1452,19 +1452,19 @@
         <v>35328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24272</v>
+        <v>24852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49760</v>
+        <v>50110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01831259253004649</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01258130440532958</v>
+        <v>0.01288213639472134</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02579295665490294</v>
+        <v>0.02597447667261864</v>
       </c>
     </row>
     <row r="15">
@@ -1481,19 +1481,19 @@
         <v>4454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11567</v>
+        <v>14561</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00463594106298111</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001074866293158311</v>
+        <v>0.001085142271491413</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01203866277090832</v>
+        <v>0.01515532593844807</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5922</v>
+        <v>5292</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001094526185876138</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006114807163595025</v>
+        <v>0.005464859907869647</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1523,19 +1523,19 @@
         <v>5514</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1753</v>
+        <v>1650</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14669</v>
+        <v>13674</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002858261921908697</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009088017045196815</v>
+        <v>0.0008552948730110865</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007603789948764485</v>
+        <v>0.007087977924447675</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>927082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>913265</v>
+        <v>912846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>937686</v>
+        <v>938094</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9649093234509832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9505286611112964</v>
+        <v>0.9500923138863296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9759464560368649</v>
+        <v>0.9763704345445494</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>872</v>
@@ -1620,19 +1620,19 @@
         <v>928597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>914577</v>
+        <v>913444</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>940157</v>
+        <v>939739</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9589053432623306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9444276193944262</v>
+        <v>0.9432570807458496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9708427335133312</v>
+        <v>0.9704108780343159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1737</v>
@@ -1641,19 +1641,19 @@
         <v>1855680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1836969</v>
+        <v>1836033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1871243</v>
+        <v>1872272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9618955137971691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9521967208119085</v>
+        <v>0.9517115918086262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9699626194491565</v>
+        <v>0.9704956850045657</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>17800</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11084</v>
+        <v>10408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27729</v>
+        <v>26280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02627008998322642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01635790895439133</v>
+        <v>0.01536101934063855</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0409232384111082</v>
+        <v>0.03878522352566451</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1695,19 +1695,19 @@
         <v>6362</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2624</v>
+        <v>2738</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12397</v>
+        <v>12715</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009302916613953667</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003836959432352776</v>
+        <v>0.00400319100230889</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01812827230778636</v>
+        <v>0.01859315696998924</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1716,19 +1716,19 @@
         <v>24162</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16601</v>
+        <v>15813</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36588</v>
+        <v>33980</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0177474975082887</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01219411505967659</v>
+        <v>0.0116151194007829</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02687457060781307</v>
+        <v>0.02495892940853111</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>28618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19242</v>
+        <v>18685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41678</v>
+        <v>41005</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04223579593887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02839843885102756</v>
+        <v>0.02757662587574829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0615094856420192</v>
+        <v>0.06051709825390433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -1766,19 +1766,19 @@
         <v>36735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26975</v>
+        <v>26181</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50350</v>
+        <v>49745</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05371930395224622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03944701391010352</v>
+        <v>0.0382846551497411</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07362849338717753</v>
+        <v>0.07274377900287819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -1787,19 +1787,19 @@
         <v>65354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50873</v>
+        <v>50599</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83879</v>
+        <v>82586</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04800394935197336</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03736778789767448</v>
+        <v>0.03716645833840111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06161099315289673</v>
+        <v>0.06066140081304846</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>18528</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10833</v>
+        <v>11697</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29733</v>
+        <v>29163</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02734417102431578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0159874119864854</v>
+        <v>0.01726282859138142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04388034014294382</v>
+        <v>0.04303983380130512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1837,19 +1837,19 @@
         <v>20865</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13506</v>
+        <v>12920</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32339</v>
+        <v>31548</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03051192890778549</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01974999763398917</v>
+        <v>0.0188940061122498</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04729029294613687</v>
+        <v>0.04613307065649769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1858,19 +1858,19 @@
         <v>39393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28116</v>
+        <v>28588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53213</v>
+        <v>53658</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02893533231633013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02065179299367725</v>
+        <v>0.02099844985714283</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03908644396697908</v>
+        <v>0.03941307612754034</v>
       </c>
     </row>
     <row r="21">
@@ -1887,19 +1887,19 @@
         <v>22801</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12761</v>
+        <v>14022</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33411</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03365053075885397</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01883354705368766</v>
+        <v>0.0206945891953766</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04930975660603819</v>
+        <v>0.05181899856207466</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1908,19 +1908,19 @@
         <v>18766</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10815</v>
+        <v>11240</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26885</v>
+        <v>30293</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02744256826989283</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01581505694509122</v>
+        <v>0.01643729920686249</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03931527763845332</v>
+        <v>0.04429820104811497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -1929,19 +1929,19 @@
         <v>41567</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29806</v>
+        <v>30699</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56975</v>
+        <v>56522</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03053227804571018</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02189348708442981</v>
+        <v>0.02254888002243339</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04184973081856806</v>
+        <v>0.04151655939297522</v>
       </c>
     </row>
     <row r="22">
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8231</v>
+        <v>8295</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002428290619688067</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01214716785321052</v>
+        <v>0.01224158244738105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9865</v>
+        <v>8189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001208562918915336</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007245747228238236</v>
+        <v>0.006015168720639202</v>
       </c>
     </row>
     <row r="23">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9441</v>
+        <v>7970</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002350406345790328</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01393354199983945</v>
+        <v>0.01176174132653714</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8902</v>
+        <v>10252</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003297152046905374</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01301722677355029</v>
+        <v>0.01499238979474386</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2063,19 +2063,19 @@
         <v>3847</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11144</v>
+        <v>11455</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002825955667553907</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0005477051126075706</v>
+        <v>0.000548330745854778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008185785334241788</v>
+        <v>0.008413708552235971</v>
       </c>
     </row>
     <row r="24">
@@ -2092,19 +2092,19 @@
         <v>647014</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>633499</v>
+        <v>634453</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>656549</v>
+        <v>657196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9548871046735528</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9349401306110046</v>
+        <v>0.9363479801931341</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9689584235751596</v>
+        <v>0.9699130223765394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>663</v>
@@ -2113,19 +2113,19 @@
         <v>649854</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>637079</v>
+        <v>637193</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>659717</v>
+        <v>659845</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9502994874926385</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9316192978182269</v>
+        <v>0.9317853451946687</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9647222525769045</v>
+        <v>0.9649101089465522</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1275</v>
@@ -2134,19 +2134,19 @@
         <v>1296868</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1277759</v>
+        <v>1278009</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1311458</v>
+        <v>1311234</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.952582749622006</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9385464241056023</v>
+        <v>0.9387300557651799</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9632997245163891</v>
+        <v>0.963134737407206</v>
       </c>
     </row>
     <row r="25">
@@ -2167,19 +2167,19 @@
         <v>16505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9676</v>
+        <v>9660</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24461</v>
+        <v>26491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01755988568446267</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01029478385556817</v>
+        <v>0.01027792141120536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02602517580355909</v>
+        <v>0.02818463357673529</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2188,19 +2188,19 @@
         <v>6501</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14357</v>
+        <v>15024</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0062660948534757</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002281190970953947</v>
+        <v>0.002277997889200997</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01383895023472817</v>
+        <v>0.01448203558854271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2209,19 +2209,19 @@
         <v>23005</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15269</v>
+        <v>14657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34775</v>
+        <v>32531</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0116344570074017</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007721972803083086</v>
+        <v>0.007412273903471223</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01758681689418027</v>
+        <v>0.01645221844104668</v>
       </c>
     </row>
     <row r="26">
@@ -2238,19 +2238,19 @@
         <v>44060</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32214</v>
+        <v>32618</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58354</v>
+        <v>56724</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04687680534119747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03427342033318702</v>
+        <v>0.03470387496759959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06208557565442713</v>
+        <v>0.06035123407321777</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2259,19 +2259,19 @@
         <v>60506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47460</v>
+        <v>45531</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78522</v>
+        <v>76218</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0583230934436522</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0457475239350865</v>
+        <v>0.04388787920293081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07568836278094365</v>
+        <v>0.07346800963097808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -2280,19 +2280,19 @@
         <v>104566</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86948</v>
+        <v>86596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129618</v>
+        <v>127445</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05288224361991047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04397228484921294</v>
+        <v>0.04379448887778489</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06555221105904092</v>
+        <v>0.06445285653475663</v>
       </c>
     </row>
     <row r="27">
@@ -2309,19 +2309,19 @@
         <v>49588</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37263</v>
+        <v>37451</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>64257</v>
+        <v>64982</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05275843438104472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03964617034219797</v>
+        <v>0.03984619988413059</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06836533645938202</v>
+        <v>0.06913705385798065</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -2330,19 +2330,19 @@
         <v>38232</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27089</v>
+        <v>27514</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53137</v>
+        <v>52304</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03685246862694768</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02611112507068067</v>
+        <v>0.02652087402716119</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05121932628084113</v>
+        <v>0.05041638847912824</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>89</v>
@@ -2351,19 +2351,19 @@
         <v>87820</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>72551</v>
+        <v>71536</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>105270</v>
+        <v>107196</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04441317041909123</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03669116016612266</v>
+        <v>0.03617791931999382</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05323853114220756</v>
+        <v>0.05421233692080391</v>
       </c>
     </row>
     <row r="28">
@@ -2380,19 +2380,19 @@
         <v>20638</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12951</v>
+        <v>12771</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30910</v>
+        <v>29894</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02195734085008101</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01377950854344917</v>
+        <v>0.01358761275494451</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03288597786742896</v>
+        <v>0.03180552798527208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -2401,19 +2401,19 @@
         <v>18192</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11338</v>
+        <v>10909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28043</v>
+        <v>29865</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0175352889074733</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01092883404285578</v>
+        <v>0.01051519568018943</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0270314419331731</v>
+        <v>0.02878734293388312</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>42</v>
@@ -2422,19 +2422,19 @@
         <v>38829</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27715</v>
+        <v>27700</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51860</v>
+        <v>51368</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01963725596589062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01401634116075003</v>
+        <v>0.0140088696874129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02622732129197605</v>
+        <v>0.02597856169211251</v>
       </c>
     </row>
     <row r="29">
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4681</v>
+        <v>5210</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0008973349579644156</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.004512001321439357</v>
+        <v>0.00502226142428791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4682</v>
+        <v>5253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0004707980139195642</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.002368057139837057</v>
+        <v>0.002656646413101368</v>
       </c>
     </row>
     <row r="30">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6634</v>
+        <v>7286</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00154980463137259</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.007057891854641602</v>
+        <v>0.007751980395978502</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2535,19 +2535,19 @@
         <v>6122</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1991</v>
+        <v>2024</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13915</v>
+        <v>13763</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005901342480320215</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00191934594018585</v>
+        <v>0.001950679896116061</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01341340221749041</v>
+        <v>0.01326681702796103</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2556,19 +2556,19 @@
         <v>7579</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3029</v>
+        <v>2582</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16811</v>
+        <v>16119</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003832893413991483</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00153190350212169</v>
+        <v>0.001305616178839949</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008501909413007719</v>
+        <v>0.00815203251815049</v>
       </c>
     </row>
     <row r="31">
@@ -2585,19 +2585,19 @@
         <v>888871</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>874860</v>
+        <v>873377</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>901782</v>
+        <v>901588</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9457085434207734</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9308006878622787</v>
+        <v>0.9292232080199959</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9594447272910739</v>
+        <v>0.9592385626237948</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>951</v>
@@ -2606,19 +2606,19 @@
         <v>988875</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>973706</v>
+        <v>972257</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1001442</v>
+        <v>1001525</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9531946666837411</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9385734508487554</v>
+        <v>0.9371762889065856</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9653089800513265</v>
+        <v>0.9653887522749202</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1890</v>
@@ -2627,19 +2627,19 @@
         <v>1877745</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1855981</v>
+        <v>1855673</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1893202</v>
+        <v>1896454</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9496362316634752</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9386295256309344</v>
+        <v>0.9384735441371116</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9574532420126221</v>
+        <v>0.9590979928216462</v>
       </c>
     </row>
     <row r="32">
@@ -2660,19 +2660,19 @@
         <v>73335</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02242557633293724</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2681,19 +2681,19 @@
         <v>18219</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005394631275076582</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -2702,19 +2702,19 @@
         <v>91553</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01377298784184549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
     </row>
     <row r="33">
@@ -2731,19 +2731,19 @@
         <v>92082</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02815858390342363</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>125</v>
@@ -2752,19 +2752,19 @@
         <v>132778</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03931639297741841</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>216</v>
@@ -2773,19 +2773,19 @@
         <v>224860</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03382731984564231</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
     </row>
     <row r="34">
@@ -2802,19 +2802,19 @@
         <v>117093</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03580666602552131</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>110</v>
@@ -2823,19 +2823,19 @@
         <v>113471</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03359951534486033</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>224</v>
@@ -2844,19 +2844,19 @@
         <v>230564</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03468532093793452</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
     </row>
     <row r="35">
@@ -2873,19 +2873,19 @@
         <v>70385</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02152347307863234</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2894,19 +2894,19 @@
         <v>69958</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02071495137315627</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>136</v>
@@ -2915,19 +2915,19 @@
         <v>140343</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02111270282602259</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
     </row>
     <row r="36">
@@ -2944,19 +2944,19 @@
         <v>6100</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -2986,19 +2986,19 @@
         <v>8090</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="37">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9276</v>
+        <v>9391</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0009324548201874439</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.002836642857964829</v>
+        <v>0.002871751454890532</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3036,19 +3036,19 @@
         <v>8377</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3566</v>
+        <v>3742</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17300</v>
+        <v>18312</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002480469896367444</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001055812239075472</v>
+        <v>0.001108077022181625</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005122530798283654</v>
+        <v>0.005422269572567275</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -3057,19 +3057,19 @@
         <v>11426</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5133</v>
+        <v>5560</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>20960</v>
+        <v>21838</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001718925411612986</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0007721247178793251</v>
+        <v>0.0008364011340252218</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003153119756913961</v>
+        <v>0.003285227429053973</v>
       </c>
     </row>
     <row r="38">
@@ -3086,19 +3086,19 @@
         <v>3130219</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9572138594679592</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3150</v>
@@ -3107,19 +3107,19 @@
         <v>3223430</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9544765500765502</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6223</v>
@@ -3128,19 +3128,19 @@
         <v>6353647</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9558231667227125</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
     </row>
     <row r="39">
@@ -3401,19 +3401,19 @@
         <v>8592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3847</v>
+        <v>4077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16380</v>
+        <v>18097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01221311648144519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005468700957407179</v>
+        <v>0.005795964353365022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02328453987945817</v>
+        <v>0.02572574205646081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3422,19 +3422,19 @@
         <v>3997</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10458</v>
+        <v>9075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005734493555936003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001438496918647193</v>
+        <v>0.001431230422453554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01500285969759909</v>
+        <v>0.01301896458348027</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3443,19 +3443,19 @@
         <v>12589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6832</v>
+        <v>6920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22287</v>
+        <v>22015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008988651710675331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004878010060161701</v>
+        <v>0.004941064437865353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01591319794534129</v>
+        <v>0.0157191416257214</v>
       </c>
     </row>
     <row r="5">
@@ -3472,19 +3472,19 @@
         <v>13842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7167</v>
+        <v>6770</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24133</v>
+        <v>23463</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01967723926101692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01018780217360239</v>
+        <v>0.009623921591328652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03430595454368988</v>
+        <v>0.03335287775947676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3493,19 +3493,19 @@
         <v>12656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6887</v>
+        <v>7082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22023</v>
+        <v>21546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01815697370244801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009880592048548494</v>
+        <v>0.01016055184237986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03159501994761389</v>
+        <v>0.03091091771718824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -3514,19 +3514,19 @@
         <v>26499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16758</v>
+        <v>17558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39051</v>
+        <v>40011</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01892059038791787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01196546797740614</v>
+        <v>0.01253670133777663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02788332684653734</v>
+        <v>0.02856836887054406</v>
       </c>
     </row>
     <row r="6">
@@ -3543,19 +3543,19 @@
         <v>17387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10268</v>
+        <v>10908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28073</v>
+        <v>28392</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02471537917982199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01459676797156519</v>
+        <v>0.01550645636939178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03990712336205316</v>
+        <v>0.0403597359698606</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3564,19 +3564,19 @@
         <v>6836</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2887</v>
+        <v>2908</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13625</v>
+        <v>14220</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009806345598078312</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004142150588378077</v>
+        <v>0.004171514294951977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01954704589587057</v>
+        <v>0.02040027242638665</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -3585,19 +3585,19 @@
         <v>24222</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14919</v>
+        <v>15526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34667</v>
+        <v>36868</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01729502857394398</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01065254274994874</v>
+        <v>0.01108597605874635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02475279592502518</v>
+        <v>0.02632437214547383</v>
       </c>
     </row>
     <row r="7">
@@ -3614,19 +3614,19 @@
         <v>8671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3700</v>
+        <v>3724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18584</v>
+        <v>18579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0123257100093297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005259579961664465</v>
+        <v>0.005294116435364734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02641747191129783</v>
+        <v>0.02640989882153955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3638,16 +3638,16 @@
         <v>938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9452</v>
+        <v>8742</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005476326798942092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001345450020729149</v>
+        <v>0.001345238944892202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01355932354137552</v>
+        <v>0.01254190079769743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3656,19 +3656,19 @@
         <v>12488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6610</v>
+        <v>6665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22666</v>
+        <v>23380</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008916714746395552</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004720006040363238</v>
+        <v>0.004758636619307407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01618399250854393</v>
+        <v>0.01669397021576978</v>
       </c>
     </row>
     <row r="8">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4893</v>
+        <v>4143</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001168253985326745</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006955368278257099</v>
+        <v>0.005889514122868495</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4136</v>
+        <v>4123</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0005868042139308415</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002953043797971054</v>
+        <v>0.002943926777298106</v>
       </c>
     </row>
     <row r="10">
@@ -3795,19 +3795,19 @@
         <v>678062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>664054</v>
+        <v>665086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>687828</v>
+        <v>687285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9638838510181189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9439706399685494</v>
+        <v>0.9454381805291274</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9777657856241793</v>
+        <v>0.9769944769834933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>643</v>
@@ -3816,19 +3816,19 @@
         <v>689295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>681010</v>
+        <v>681747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>693975</v>
+        <v>693965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.988874367227774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9769887763023981</v>
+        <v>0.978045723142563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9955880713507864</v>
+        <v>0.9955744186781017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1296</v>
@@ -3837,19 +3837,19 @@
         <v>1367357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1353022</v>
+        <v>1352626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1378439</v>
+        <v>1378691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9763218397771348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9660858129318123</v>
+        <v>0.965803747436268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9842345612711711</v>
+        <v>0.9844141990802576</v>
       </c>
     </row>
     <row r="11">
@@ -3870,19 +3870,19 @@
         <v>13708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7242</v>
+        <v>6961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24594</v>
+        <v>23384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01347930191753556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007120981293248958</v>
+        <v>0.006844761117700496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0241840167251526</v>
+        <v>0.02299384498835617</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4884</v>
+        <v>5514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0009418869107672683</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004731541735551685</v>
+        <v>0.005341872750096048</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -3912,19 +3912,19 @@
         <v>14680</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8058</v>
+        <v>8206</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27134</v>
+        <v>25646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007164039319505282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003932429852679546</v>
+        <v>0.004004368096362162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01324180192074222</v>
+        <v>0.0125155845449304</v>
       </c>
     </row>
     <row r="12">
@@ -3941,19 +3941,19 @@
         <v>25736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16393</v>
+        <v>16713</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37290</v>
+        <v>38748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02530692274098442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01611911342728455</v>
+        <v>0.01643432920611907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03666830393694713</v>
+        <v>0.03810135820791467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -3962,19 +3962,19 @@
         <v>17988</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10639</v>
+        <v>10783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28464</v>
+        <v>28919</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01742734459223219</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0103068060642321</v>
+        <v>0.01044660273028211</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02757627309691183</v>
+        <v>0.02801728035922411</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -3983,19 +3983,19 @@
         <v>43725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32623</v>
+        <v>30141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58283</v>
+        <v>58679</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02133787448468853</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01592047662951114</v>
+        <v>0.01470926648254051</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02844276398290666</v>
+        <v>0.02863599644629115</v>
       </c>
     </row>
     <row r="13">
@@ -4012,19 +4012,19 @@
         <v>21076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12092</v>
+        <v>12483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32963</v>
+        <v>33034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02072407624216627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0118907547258284</v>
+        <v>0.0122747999658323</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03241336232101615</v>
+        <v>0.0324827465879762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4033,19 +4033,19 @@
         <v>19278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11747</v>
+        <v>11890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29375</v>
+        <v>28916</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01867710860627741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01138060500228885</v>
+        <v>0.01151880510550125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02845862333644496</v>
+        <v>0.02801390438890844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -4054,19 +4054,19 @@
         <v>40354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28830</v>
+        <v>29018</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55443</v>
+        <v>56565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01969299143374853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0140693893570819</v>
+        <v>0.0141608037997636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02705646139745254</v>
+        <v>0.02760427243867515</v>
       </c>
     </row>
     <row r="14">
@@ -4083,19 +4083,19 @@
         <v>28554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18940</v>
+        <v>19475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43164</v>
+        <v>41192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02807736013598525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0186236011925545</v>
+        <v>0.01915032198429307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0424434313060211</v>
+        <v>0.04050432673242255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -4104,19 +4104,19 @@
         <v>23011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14346</v>
+        <v>14636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34691</v>
+        <v>35020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02229339806478676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01389898488813957</v>
+        <v>0.01418004375200696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03360938047863993</v>
+        <v>0.03392778839242385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -4125,19 +4125,19 @@
         <v>51565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37599</v>
+        <v>37309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68724</v>
+        <v>70677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02516390155485457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01834858776027403</v>
+        <v>0.01820682232132423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03353785673312184</v>
+        <v>0.03449085224766777</v>
       </c>
     </row>
     <row r="15">
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6728</v>
+        <v>4809</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001158307667118749</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006518036366759276</v>
+        <v>0.004658608207484259</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7196</v>
+        <v>6005</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0005834549692434805</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003511740442053037</v>
+        <v>0.002930480535049312</v>
       </c>
     </row>
     <row r="16">
@@ -4230,19 +4230,19 @@
         <v>4167</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10390</v>
+        <v>10369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004037388233278485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00101135480974809</v>
+        <v>0.001014286331346003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01006613703839255</v>
+        <v>0.01004567388922369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4254,16 +4254,16 @@
         <v>1044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10490</v>
+        <v>10448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002033686121866954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0005092561074393738</v>
+        <v>0.000509640718460052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005119216870134207</v>
+        <v>0.005098632158378059</v>
       </c>
     </row>
     <row r="17">
@@ -4280,19 +4280,19 @@
         <v>969347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>953246</v>
+        <v>953192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>983367</v>
+        <v>984039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9531756629923691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9373432443776228</v>
+        <v>0.9372902922010776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9669616814498999</v>
+        <v>0.9676227584496008</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>918</v>
@@ -4301,19 +4301,19 @@
         <v>1007480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>994102</v>
+        <v>996129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1016669</v>
+        <v>1016587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9760665166091426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9631056878881112</v>
+        <v>0.9650690243320291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9849687100983834</v>
+        <v>0.9848893541726629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1815</v>
@@ -4322,19 +4322,19 @@
         <v>1976827</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1956948</v>
+        <v>1955515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1994790</v>
+        <v>1994547</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9647060902459101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9550047372681073</v>
+        <v>0.9543052239009555</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9734721406036831</v>
+        <v>0.9733531799623498</v>
       </c>
     </row>
     <row r="18">
@@ -4355,19 +4355,19 @@
         <v>12166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6669</v>
+        <v>6298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21867</v>
+        <v>21230</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01605870213603944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00880210785005937</v>
+        <v>0.008312722799373989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02886293623558759</v>
+        <v>0.02802171577573732</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7657</v>
+        <v>6922</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002778234125905245</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009852695214337114</v>
+        <v>0.008906396887534579</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -4397,19 +4397,19 @@
         <v>14326</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8057</v>
+        <v>7894</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24137</v>
+        <v>24276</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.009333882910624558</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005249439193095793</v>
+        <v>0.005143523614015724</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01572619627054759</v>
+        <v>0.01581728884945903</v>
       </c>
     </row>
     <row r="19">
@@ -4426,19 +4426,19 @@
         <v>30582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20145</v>
+        <v>20623</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45488</v>
+        <v>45890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04036533842238198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02658910522484599</v>
+        <v>0.02722126705744035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06003983383213926</v>
+        <v>0.06057039019676232</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4447,19 +4447,19 @@
         <v>30946</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20681</v>
+        <v>19333</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44754</v>
+        <v>45830</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03981907222389197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02660998091970439</v>
+        <v>0.02487637818539169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05758597614077333</v>
+        <v>0.05897008072186356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -4468,19 +4468,19 @@
         <v>61528</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44565</v>
+        <v>45238</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79983</v>
+        <v>79750</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04008872607476015</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02903620850257522</v>
+        <v>0.02947516425098563</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05211319277555723</v>
+        <v>0.05196124733971281</v>
       </c>
     </row>
     <row r="20">
@@ -4497,19 +4497,19 @@
         <v>17084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9646</v>
+        <v>9963</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28528</v>
+        <v>29873</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02254913324239136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01273209356903309</v>
+        <v>0.0131506355819752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03765485874078943</v>
+        <v>0.03943050936773296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4518,19 +4518,19 @@
         <v>18059</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10589</v>
+        <v>10236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30784</v>
+        <v>29583</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02323723998391021</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01362470801238393</v>
+        <v>0.01317097382172772</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03960975468791009</v>
+        <v>0.03806445278876468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4539,19 +4539,19 @@
         <v>35143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24083</v>
+        <v>24183</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50369</v>
+        <v>49540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02289756926444815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01569156391090197</v>
+        <v>0.01575618895443855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03281833713747016</v>
+        <v>0.03227820202067586</v>
       </c>
     </row>
     <row r="21">
@@ -4568,19 +4568,19 @@
         <v>20807</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12535</v>
+        <v>12777</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32886</v>
+        <v>34871</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02746320478874805</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01654569737444474</v>
+        <v>0.01686481649412254</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04340651246456984</v>
+        <v>0.04602645675426419</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -4589,19 +4589,19 @@
         <v>22513</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12889</v>
+        <v>13845</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36418</v>
+        <v>36724</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02896809760537281</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01658446269855721</v>
+        <v>0.01781453047633441</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0468596703108906</v>
+        <v>0.04725299977165869</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -4610,19 +4610,19 @@
         <v>43320</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29672</v>
+        <v>29452</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>61057</v>
+        <v>60875</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0282252360769304</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01933298831997046</v>
+        <v>0.0191896000087509</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03978164423745107</v>
+        <v>0.03966337305627324</v>
       </c>
     </row>
     <row r="22">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8533</v>
+        <v>8545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003225390774538701</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01126330042397819</v>
+        <v>0.01127857152497434</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8497</v>
+        <v>8604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001592152407220464</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005535993501956631</v>
+        <v>0.005606144189799553</v>
       </c>
     </row>
     <row r="23">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7582</v>
+        <v>8056</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00297909417868317</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009755399330298979</v>
+        <v>0.01036520565603357</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7814</v>
+        <v>8050</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001508521370771157</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.005090911799700829</v>
+        <v>0.005244973825156366</v>
       </c>
     </row>
     <row r="24">
@@ -4765,19 +4765,19 @@
         <v>715022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>700406</v>
+        <v>697025</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>729403</v>
+        <v>727210</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9437704148024104</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9244783576929511</v>
+        <v>0.9200151229812543</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9627519585403855</v>
+        <v>0.9598567696090401</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>669</v>
@@ -4786,19 +4786,19 @@
         <v>730359</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>712406</v>
+        <v>714192</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>744296</v>
+        <v>744350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9397623032237349</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9166616851502413</v>
+        <v>0.9189604127027556</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9576954009009891</v>
+        <v>0.9577646185207089</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1324</v>
@@ -4807,19 +4807,19 @@
         <v>1445381</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1423576</v>
+        <v>1423838</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1464740</v>
+        <v>1465314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9417408307710858</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9275336799017807</v>
+        <v>0.9277041409826826</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9543542335437195</v>
+        <v>0.9547279491345008</v>
       </c>
     </row>
     <row r="25">
@@ -4840,19 +4840,19 @@
         <v>4921</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1896</v>
+        <v>1933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10906</v>
+        <v>11895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005192451579293194</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00200011887571441</v>
+        <v>0.002040020461189731</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01150695942718855</v>
+        <v>0.01255080527537978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4861,19 +4861,19 @@
         <v>5948</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2073</v>
+        <v>2052</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12000</v>
+        <v>12758</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005654238674761223</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001970997325571999</v>
+        <v>0.001950774816685465</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01140797561721236</v>
+        <v>0.01212838158936191</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4882,19 +4882,19 @@
         <v>10869</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5065</v>
+        <v>5824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18317</v>
+        <v>18765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005435372414525307</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002532847714135667</v>
+        <v>0.002912383555593005</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009160238849266011</v>
+        <v>0.009384354883974622</v>
       </c>
     </row>
     <row r="26">
@@ -4911,19 +4911,19 @@
         <v>42014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30640</v>
+        <v>30592</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57990</v>
+        <v>57583</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04433073653451627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.032329494584945</v>
+        <v>0.03227851976096894</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06118727768824783</v>
+        <v>0.06075831503721429</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -4932,19 +4932,19 @@
         <v>57179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43206</v>
+        <v>42692</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73113</v>
+        <v>73491</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05435753713937084</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04107427318770792</v>
+        <v>0.04058603805639029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06950577683771338</v>
+        <v>0.06986494898896414</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -4953,19 +4953,19 @@
         <v>99193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81694</v>
+        <v>81449</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121339</v>
+        <v>119684</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04960528578359932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04085455106528203</v>
+        <v>0.04073188488160393</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06068019459776033</v>
+        <v>0.05985266603162632</v>
       </c>
     </row>
     <row r="27">
@@ -4982,19 +4982,19 @@
         <v>34379</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24084</v>
+        <v>23576</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48636</v>
+        <v>48004</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03627494684990547</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02541233941279598</v>
+        <v>0.02487590527215338</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05131810738308468</v>
+        <v>0.05065091592919469</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>27</v>
@@ -5003,19 +5003,19 @@
         <v>30005</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20283</v>
+        <v>20093</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44304</v>
+        <v>43237</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02852437088901037</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01928196601995562</v>
+        <v>0.01910143014859663</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04211769352280672</v>
+        <v>0.04110391349346376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -5024,19 +5024,19 @@
         <v>64384</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>50244</v>
+        <v>49788</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>84686</v>
+        <v>83874</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03219779440361991</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02512646572926243</v>
+        <v>0.02489864859529842</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04235059190634337</v>
+        <v>0.04194445289101546</v>
       </c>
     </row>
     <row r="28">
@@ -5053,19 +5053,19 @@
         <v>18120</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11154</v>
+        <v>10991</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29451</v>
+        <v>29358</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01911872776614213</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01176922028671852</v>
+        <v>0.01159721346052072</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03107454119348992</v>
+        <v>0.03097708901225535</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -5074,19 +5074,19 @@
         <v>17591</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10487</v>
+        <v>9998</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29085</v>
+        <v>28353</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01672345972165726</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009969708250449381</v>
+        <v>0.009504408663650718</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02764979383483415</v>
+        <v>0.0269545287295792</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -5095,19 +5095,19 @@
         <v>35711</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>25430</v>
+        <v>24935</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49862</v>
+        <v>50662</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01785870876673434</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01271747989574885</v>
+        <v>0.01246986170650617</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0249353104603011</v>
+        <v>0.02533555158353171</v>
       </c>
     </row>
     <row r="29">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6342</v>
+        <v>7401</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001338104732974931</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.006691394010193251</v>
+        <v>0.007808811901952029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6403</v>
+        <v>6956</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0006342013052863172</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.003201888592035592</v>
+        <v>0.00347855386912846</v>
       </c>
     </row>
     <row r="30">
@@ -5200,19 +5200,19 @@
         <v>4899</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12782</v>
+        <v>12832</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004657539142771445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0009995618613661955</v>
+        <v>0.001004493487528684</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01215168957751918</v>
+        <v>0.0121992205856141</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -5221,19 +5221,19 @@
         <v>4899</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12711</v>
+        <v>12361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002450075607984663</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0005324131424668694</v>
+        <v>0.0005301170866940119</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.006356453200211355</v>
+        <v>0.00618175331640574</v>
       </c>
     </row>
     <row r="31">
@@ -5250,19 +5250,19 @@
         <v>900664</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>885556</v>
+        <v>886110</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>913365</v>
+        <v>913506</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9503287522378907</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9343877317508924</v>
+        <v>0.9349729406516033</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9637309223649246</v>
+        <v>0.963878887531969</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>958</v>
@@ -5271,19 +5271,19 @@
         <v>1001313</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>984655</v>
+        <v>984016</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1013700</v>
+        <v>1014102</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9519076712670015</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9360715128927192</v>
+        <v>0.9354646942284877</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.963683819119839</v>
+        <v>0.9640664753806321</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1823</v>
@@ -5292,19 +5292,19 @@
         <v>1901976</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1877367</v>
+        <v>1878034</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1922308</v>
+        <v>1921398</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9511593348442036</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9388526877982984</v>
+        <v>0.9391859490921524</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9613269154519071</v>
+        <v>0.9608718635575918</v>
       </c>
     </row>
     <row r="32">
@@ -5325,19 +5325,19 @@
         <v>39387</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28475</v>
+        <v>27331</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55414</v>
+        <v>54254</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01149719909555801</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008311914374918064</v>
+        <v>0.007977928802253721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01617548512124959</v>
+        <v>0.01583695097245395</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5346,19 +5346,19 @@
         <v>13076</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6860</v>
+        <v>6939</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21013</v>
+        <v>21626</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00367486352950981</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001927806807992076</v>
+        <v>0.001950002685711841</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005905364528320568</v>
+        <v>0.006077675359582728</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>49</v>
@@ -5367,19 +5367,19 @@
         <v>52463</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39448</v>
+        <v>39606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70040</v>
+        <v>71090</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007511823559269091</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005648231148541239</v>
+        <v>0.005670883796436242</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01002845098127885</v>
+        <v>0.01017883450505854</v>
       </c>
     </row>
     <row r="33">
@@ -5396,19 +5396,19 @@
         <v>112174</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>91699</v>
+        <v>90449</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>137314</v>
+        <v>133849</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03274399877540462</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02676718375725171</v>
+        <v>0.02640231008742972</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0400822250879378</v>
+        <v>0.03907096047496042</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>107</v>
@@ -5417,19 +5417,19 @@
         <v>118770</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>97686</v>
+        <v>96991</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>144063</v>
+        <v>142873</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0333781130729672</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02745282753182927</v>
+        <v>0.02725751185358634</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04048626710301031</v>
+        <v>0.04015192021710382</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>206</v>
@@ -5438,19 +5438,19 @@
         <v>230944</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>200478</v>
+        <v>199398</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>268294</v>
+        <v>261845</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03306707154406541</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02870493511344608</v>
+        <v>0.02855025011748182</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03841486433189305</v>
+        <v>0.03749156722390683</v>
       </c>
     </row>
     <row r="34">
@@ -5467,19 +5467,19 @@
         <v>89925</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>71738</v>
+        <v>70095</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>111888</v>
+        <v>111455</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02624939875227589</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02094055811079893</v>
+        <v>0.02046085171917326</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03266037997949551</v>
+        <v>0.03253411639901407</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>67</v>
@@ -5488,19 +5488,19 @@
         <v>74178</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58314</v>
+        <v>57177</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>93627</v>
+        <v>91392</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02084639613086796</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01638811211214173</v>
+        <v>0.01606869471503989</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02631232518745829</v>
+        <v>0.0256841587130285</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>149</v>
@@ -5509,19 +5509,19 @@
         <v>164103</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>137427</v>
+        <v>137812</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>191776</v>
+        <v>191410</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02349664105119679</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01967704752396286</v>
+        <v>0.01973220308360832</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02745895654768443</v>
+        <v>0.02740644164318788</v>
       </c>
     </row>
     <row r="35">
@@ -5538,19 +5538,19 @@
         <v>76151</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58812</v>
+        <v>59581</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>98449</v>
+        <v>97587</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02222863604185601</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01716725408749016</v>
+        <v>0.01739179500325085</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02873754901468104</v>
+        <v>0.02848585349785329</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>56</v>
@@ -5559,19 +5559,19 @@
         <v>66933</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50368</v>
+        <v>49159</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88026</v>
+        <v>86261</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01881029405724712</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01415501032243655</v>
+        <v>0.01381532839881635</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02473820169152301</v>
+        <v>0.02424202754594944</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>122</v>
@@ -5580,19 +5580,19 @@
         <v>143084</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>117804</v>
+        <v>120006</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>169997</v>
+        <v>171439</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0204870364383744</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01686747517256848</v>
+        <v>0.01718269304972934</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02434047841880316</v>
+        <v>0.02454695256297445</v>
       </c>
     </row>
     <row r="36">
@@ -5609,19 +5609,19 @@
         <v>3712</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001083486624067237</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0003359985463963319</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -5651,19 +5651,19 @@
         <v>4907</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0007026514280744572</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
     </row>
     <row r="37">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4115</v>
+        <v>3685</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0002398946348475144</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.001201088103173845</v>
+        <v>0.00107571412011515</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -5701,19 +5701,19 @@
         <v>11382</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5309</v>
+        <v>5595</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20694</v>
+        <v>20119</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003198674483115912</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001491922615582731</v>
+        <v>0.001572245874468261</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005815698359077847</v>
+        <v>0.005654092266525512</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -5722,19 +5722,19 @@
         <v>12204</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6057</v>
+        <v>6409</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>21627</v>
+        <v>21854</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001747353465396086</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0008672336312834266</v>
+        <v>0.0009176336386081308</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003096582864289924</v>
+        <v>0.003129064145079043</v>
       </c>
     </row>
     <row r="38">
@@ -5751,19 +5751,19 @@
         <v>3263096</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3233819</v>
+        <v>3234660</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3289356</v>
+        <v>3289415</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9525069467211303</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9439607951321279</v>
+        <v>0.9442063685846567</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9601721765670036</v>
+        <v>0.9601894539285974</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3188</v>
@@ -5772,19 +5772,19 @@
         <v>3428447</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3401530</v>
+        <v>3401976</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3450615</v>
+        <v>3453026</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9635044564058846</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9559400007053569</v>
+        <v>0.9560654682590035</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9697344348855507</v>
+        <v>0.9704120139096609</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6258</v>
@@ -5793,19 +5793,19 @@
         <v>6691543</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6654093</v>
+        <v>6653050</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6726900</v>
+        <v>6724637</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9581100310797143</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9527478867812453</v>
+        <v>0.9525985522300324</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9631725685931765</v>
+        <v>0.962848447957984</v>
       </c>
     </row>
     <row r="39">
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11460</v>
+        <v>10948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004067091293982331</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01701296130618688</v>
+        <v>0.01625247003663498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6172</v>
+        <v>6196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002618744830699361</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009172995117356883</v>
+        <v>0.009208588908689816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6108,19 +6108,19 @@
         <v>4502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1744</v>
+        <v>957</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13263</v>
+        <v>12234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003343344440707584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00129544882607103</v>
+        <v>0.0007108447645687467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009849862400183833</v>
+        <v>0.009085743622436032</v>
       </c>
     </row>
     <row r="5">
@@ -6137,19 +6137,19 @@
         <v>10496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5173</v>
+        <v>4897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20140</v>
+        <v>18711</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01558182136973824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00767950420222855</v>
+        <v>0.007270179122673874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0298977603357101</v>
+        <v>0.02777684968021574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -6158,19 +6158,19 @@
         <v>10171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5191</v>
+        <v>5051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17472</v>
+        <v>18122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01511704449620388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00771487593897156</v>
+        <v>0.007507379281166809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02596771575492024</v>
+        <v>0.02693318270424894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -6179,19 +6179,19 @@
         <v>20668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12835</v>
+        <v>12651</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32805</v>
+        <v>32235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.015349569758523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009532014987651502</v>
+        <v>0.009395795815554102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02436346961885361</v>
+        <v>0.02394067384172125</v>
       </c>
     </row>
     <row r="6">
@@ -6208,19 +6208,19 @@
         <v>15524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8911</v>
+        <v>8712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26625</v>
+        <v>26456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02304558649921745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01322802242237277</v>
+        <v>0.01293268608778345</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.039523895390291</v>
+        <v>0.03927371965717065</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -6229,19 +6229,19 @@
         <v>6342</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2515</v>
+        <v>2704</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14019</v>
+        <v>13673</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0094253612130509</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003738006521261111</v>
+        <v>0.0040194242605476</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0208354022893078</v>
+        <v>0.02032185008231598</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -6250,19 +6250,19 @@
         <v>21866</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13957</v>
+        <v>14074</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34219</v>
+        <v>34236</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01623948351097805</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01036575200243988</v>
+        <v>0.01045267136641377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02541362390161848</v>
+        <v>0.02542617593132345</v>
       </c>
     </row>
     <row r="7">
@@ -6279,19 +6279,19 @@
         <v>3756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9263</v>
+        <v>9471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005575329520611149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00141746405418361</v>
+        <v>0.001468378917520911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01375099037247757</v>
+        <v>0.01405942353449449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6300,19 +6300,19 @@
         <v>5527</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1883</v>
+        <v>2007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12867</v>
+        <v>13276</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008214364636652649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002799281391053107</v>
+        <v>0.00298288097650476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01912289948410673</v>
+        <v>0.01973136094765037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -6321,19 +6321,19 @@
         <v>9283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4560</v>
+        <v>4077</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18294</v>
+        <v>17834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006894070173719251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003386795541475505</v>
+        <v>0.003028038087178585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01358638348370731</v>
+        <v>0.01324486214506241</v>
       </c>
     </row>
     <row r="8">
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4266</v>
+        <v>4294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001264493674661517</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.006340389226678277</v>
+        <v>0.006381711487503355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4259</v>
+        <v>4295</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0006318745833422134</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.003163304377895236</v>
+        <v>0.00318983771482485</v>
       </c>
     </row>
     <row r="9">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10192</v>
+        <v>7208</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002406139083200413</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01514755710763883</v>
+        <v>0.01071248078504599</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7791</v>
+        <v>8898</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001202361198894613</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005786538714180445</v>
+        <v>0.006608736222975683</v>
       </c>
     </row>
     <row r="10">
@@ -6476,19 +6476,19 @@
         <v>653356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>641564</v>
+        <v>641979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>661056</v>
+        <v>661334</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.969900772408836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9523958223511194</v>
+        <v>0.9530114247850018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9813314366162256</v>
+        <v>0.9817431300286764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>657</v>
@@ -6497,19 +6497,19 @@
         <v>663367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>655505</v>
+        <v>654613</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>668655</v>
+        <v>668304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9859229877125034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9742376761724726</v>
+        <v>0.9729120262010355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.993781735885637</v>
+        <v>0.9932593086783029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1290</v>
@@ -6518,19 +6518,19 @@
         <v>1316724</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1304291</v>
+        <v>1303964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1327056</v>
+        <v>1326612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9779071632845627</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9686739725918841</v>
+        <v>0.968430568420263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.985581073729596</v>
+        <v>0.9852511794415849</v>
       </c>
     </row>
     <row r="11">
@@ -6551,19 +6551,19 @@
         <v>6728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2374</v>
+        <v>2445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14656</v>
+        <v>15143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006586616377313146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00232433726397374</v>
+        <v>0.002393343728720837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01434765523910746</v>
+        <v>0.01482457208524255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -6572,19 +6572,19 @@
         <v>5202</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2021</v>
+        <v>1919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11531</v>
+        <v>11957</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004997167982367685</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001941665744695385</v>
+        <v>0.001843723645960375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01107666494877109</v>
+        <v>0.01148619194608524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -6593,19 +6593,19 @@
         <v>11930</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5788</v>
+        <v>5532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22387</v>
+        <v>21394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005784374523554643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00280610608640214</v>
+        <v>0.002682382870636514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01085443009851991</v>
+        <v>0.01037282027343216</v>
       </c>
     </row>
     <row r="12">
@@ -6622,19 +6622,19 @@
         <v>30559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20512</v>
+        <v>20030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43819</v>
+        <v>44855</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02991600372646066</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02008041229805373</v>
+        <v>0.01960864214141507</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04289695989087606</v>
+        <v>0.04391141060874559</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -6643,19 +6643,19 @@
         <v>45980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32748</v>
+        <v>33654</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61654</v>
+        <v>61718</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04416897362479213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03145773867740958</v>
+        <v>0.03232874993187689</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05922500246819624</v>
+        <v>0.05928717966561552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -6664,19 +6664,19 @@
         <v>76539</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59382</v>
+        <v>60742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97908</v>
+        <v>95720</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03710990132588157</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02879132233454585</v>
+        <v>0.02945074564655378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04747050451611093</v>
+        <v>0.04640982751573974</v>
       </c>
     </row>
     <row r="13">
@@ -6693,19 +6693,19 @@
         <v>29430</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20445</v>
+        <v>19359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41624</v>
+        <v>41924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02881064026186397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0200151374556142</v>
+        <v>0.01895202604467986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04074832821257095</v>
+        <v>0.04104153121395977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -6714,19 +6714,19 @@
         <v>9148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4303</v>
+        <v>4260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17204</v>
+        <v>17324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008787175020652639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004133268904469614</v>
+        <v>0.004091840640022633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01652621186525638</v>
+        <v>0.01664126917964887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -6735,19 +6735,19 @@
         <v>38577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26814</v>
+        <v>27628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52469</v>
+        <v>52783</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01870420212592845</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01300083060265259</v>
+        <v>0.01339543352402417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02543946550388116</v>
+        <v>0.02559184684105587</v>
       </c>
     </row>
     <row r="14">
@@ -6764,19 +6764,19 @@
         <v>24757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14971</v>
+        <v>15601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38518</v>
+        <v>36482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02423595942964293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01465575663095234</v>
+        <v>0.01527311122363877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03770766689580178</v>
+        <v>0.03571437377648811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6785,19 +6785,19 @@
         <v>12512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6822</v>
+        <v>7514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20188</v>
+        <v>20891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01201885628760534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006553575943063774</v>
+        <v>0.007217835457479831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01939284670520511</v>
+        <v>0.02006812600096464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -6806,19 +6806,19 @@
         <v>37269</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26090</v>
+        <v>26792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51837</v>
+        <v>52027</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01806962430143428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01264977622941956</v>
+        <v>0.01298985806503461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02513293558578966</v>
+        <v>0.02522529749546619</v>
       </c>
     </row>
     <row r="15">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9610</v>
+        <v>8837</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001726739232894705</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009407916073337996</v>
+        <v>0.008650618127889989</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7309</v>
+        <v>6530</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001163098004383861</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.007020980369742595</v>
+        <v>0.006272448699997545</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9793</v>
+        <v>11160</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001442252749751744</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004748324897738362</v>
+        <v>0.005411104869231137</v>
       </c>
     </row>
     <row r="16">
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5216</v>
+        <v>5305</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001026159813560755</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005106268913996785</v>
+        <v>0.005193359873036814</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5247</v>
+        <v>5259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0005082264514576669</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00254392930421244</v>
+        <v>0.002550039952273806</v>
       </c>
     </row>
     <row r="17">
@@ -6969,19 +6969,19 @@
         <v>965386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>947660</v>
+        <v>948662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>980167</v>
+        <v>979516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.945070290496541</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9277177185517693</v>
+        <v>0.9286991821417059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9595409718384221</v>
+        <v>0.95890367582798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>949</v>
@@ -6990,19 +6990,19 @@
         <v>1014944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1002305</v>
+        <v>1004376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1023026</v>
+        <v>1023465</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9749639087154875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9628222704887986</v>
+        <v>0.9648119679611866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9827273656229416</v>
+        <v>0.9831494602715244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1852</v>
@@ -7011,19 +7011,19 @@
         <v>1980330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1959322</v>
+        <v>1959086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1998109</v>
+        <v>1996494</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9601584882460121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.94997275786905</v>
+        <v>0.9498585369066249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9687789364584373</v>
+        <v>0.9679956640298352</v>
       </c>
     </row>
     <row r="18">
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9646</v>
+        <v>8468</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003652860978550231</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01273074419280615</v>
+        <v>0.01117558348044605</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9702</v>
+        <v>9716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001798648929067219</v>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006304782314602238</v>
+        <v>0.006313990705230341</v>
       </c>
     </row>
     <row r="19">
@@ -7107,19 +7107,19 @@
         <v>19902</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12350</v>
+        <v>12354</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30135</v>
+        <v>29956</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0262662669065445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01629858217337179</v>
+        <v>0.01630477792569646</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03977142237754103</v>
+        <v>0.03953454102989021</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -7128,19 +7128,19 @@
         <v>28419</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19700</v>
+        <v>19113</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39924</v>
+        <v>40713</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03638221807864225</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.025220555334685</v>
+        <v>0.02446908040198414</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05111236607649273</v>
+        <v>0.05212235686896197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7149,19 +7149,19 @@
         <v>48321</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35872</v>
+        <v>36270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63681</v>
+        <v>64180</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03140117860053672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02331130809545357</v>
+        <v>0.02356971431815141</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04138333086245714</v>
+        <v>0.04170758372904097</v>
       </c>
     </row>
     <row r="20">
@@ -7178,19 +7178,19 @@
         <v>7149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15187</v>
+        <v>14142</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00943568456615829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004052018254135897</v>
+        <v>0.004049791896480174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02004387812956366</v>
+        <v>0.01866398982022647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -7199,19 +7199,19 @@
         <v>11564</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5853</v>
+        <v>5428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20065</v>
+        <v>20294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0148048212908966</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007492702944608839</v>
+        <v>0.00694901812724226</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02568714802667323</v>
+        <v>0.02598089603770536</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -7220,19 +7220,19 @@
         <v>18714</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11481</v>
+        <v>10902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28354</v>
+        <v>28357</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01216108749520234</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007461231890499195</v>
+        <v>0.007084978222761657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01842599918246872</v>
+        <v>0.0184275643161547</v>
       </c>
     </row>
     <row r="21">
@@ -7249,19 +7249,19 @@
         <v>8559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3352</v>
+        <v>4114</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01129650698057738</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004424033106501116</v>
+        <v>0.005430109863263703</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02104991987076699</v>
+        <v>0.02120941196156154</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -7270,19 +7270,19 @@
         <v>11150</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5416</v>
+        <v>5538</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20209</v>
+        <v>20249</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01427414625084266</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006933912677298693</v>
+        <v>0.007089766918463644</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02587170794830689</v>
+        <v>0.02592369802235519</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -7291,19 +7291,19 @@
         <v>19709</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11845</v>
+        <v>11832</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31095</v>
+        <v>30933</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01280797282785717</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00769768290983829</v>
+        <v>0.007689149232857042</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02020677095208543</v>
+        <v>0.02010174551683596</v>
       </c>
     </row>
     <row r="22">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4373</v>
+        <v>5582</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001386288988486531</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005598624091653857</v>
+        <v>0.007145682275169495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5450</v>
+        <v>6050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.000703687811173566</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003541953800470053</v>
+        <v>0.00393152614515737</v>
       </c>
     </row>
     <row r="23">
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5687</v>
+        <v>4702</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001255643427497</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007505536442476281</v>
+        <v>0.006205944469434415</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4754</v>
+        <v>5743</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0006182720118338919</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.003089091031886401</v>
+        <v>0.003732135474239236</v>
       </c>
     </row>
     <row r="24">
@@ -7446,19 +7446,19 @@
         <v>739857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>729829</v>
+        <v>730184</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>747085</v>
+        <v>747190</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9764438296026616</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9632081210362818</v>
+        <v>0.9636768268313078</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9859821282043798</v>
+        <v>0.9861210334008985</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>703</v>
@@ -7467,19 +7467,19 @@
         <v>749283</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>736512</v>
+        <v>736138</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>758679</v>
+        <v>759856</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9592518778139936</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9429025326595423</v>
+        <v>0.9424234788106854</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.971280068092542</v>
+        <v>0.9727881326741482</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1381</v>
@@ -7488,19 +7488,19 @@
         <v>1489140</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1473061</v>
+        <v>1473393</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1502545</v>
+        <v>1502607</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9677171016083947</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9572675832386088</v>
+        <v>0.9574832917340943</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9764277792041045</v>
+        <v>0.9764680840378016</v>
       </c>
     </row>
     <row r="25">
@@ -7521,19 +7521,19 @@
         <v>6912</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2728</v>
+        <v>2522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15211</v>
+        <v>15591</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007379969050300979</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002912924601928533</v>
+        <v>0.002693154064291007</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01624024562317639</v>
+        <v>0.01664681079142376</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7542,19 +7542,19 @@
         <v>5823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2002</v>
+        <v>2784</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11915</v>
+        <v>12641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005578386579763304</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001918134247697223</v>
+        <v>0.002667433849473856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0114156950253325</v>
+        <v>0.01211094148491552</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7563,19 +7563,19 @@
         <v>12735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6789</v>
+        <v>6562</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22180</v>
+        <v>22198</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006430428247261707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003428204819682617</v>
+        <v>0.003313730779627637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01119969722201984</v>
+        <v>0.0112090424004602</v>
       </c>
     </row>
     <row r="26">
@@ -7592,19 +7592,19 @@
         <v>52982</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38989</v>
+        <v>40792</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67901</v>
+        <v>67851</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0565677669374109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04162845176169846</v>
+        <v>0.04355361356726112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07249739319760191</v>
+        <v>0.07244411612678284</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -7613,19 +7613,19 @@
         <v>73184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58357</v>
+        <v>57688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>91341</v>
+        <v>91784</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07011484224939511</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05590909250810396</v>
+        <v>0.05526842333084225</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08751034334732961</v>
+        <v>0.08793458914157445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -7634,19 +7634,19 @@
         <v>126166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105367</v>
+        <v>106056</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>148793</v>
+        <v>149738</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06370787902272439</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05320532579836484</v>
+        <v>0.05355343830578173</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07513347155061402</v>
+        <v>0.07561088195612367</v>
       </c>
     </row>
     <row r="27">
@@ -7663,19 +7663,19 @@
         <v>25138</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15980</v>
+        <v>16778</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36849</v>
+        <v>36103</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02683976690093435</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01706163306681735</v>
+        <v>0.0179133995679328</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03934304935686771</v>
+        <v>0.03854726907171618</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>16</v>
@@ -7684,19 +7684,19 @@
         <v>18890</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11063</v>
+        <v>10984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30219</v>
+        <v>31070</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01809789542684353</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01059899367022278</v>
+        <v>0.0105233632246358</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02895171458623534</v>
+        <v>0.02976717304677144</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>41</v>
@@ -7705,19 +7705,19 @@
         <v>44028</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>31166</v>
+        <v>31025</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>58105</v>
+        <v>58525</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02223228220604998</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01573728100677393</v>
+        <v>0.01566621555386691</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02934026925939966</v>
+        <v>0.02955221113982542</v>
       </c>
     </row>
     <row r="28">
@@ -7734,19 +7734,19 @@
         <v>33170</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22673</v>
+        <v>23767</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47030</v>
+        <v>47733</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03541543767914677</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02420807932574871</v>
+        <v>0.02537550512239922</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05021308371003417</v>
+        <v>0.05096414445919121</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -7755,19 +7755,19 @@
         <v>30405</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20811</v>
+        <v>20112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43632</v>
+        <v>43912</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02912946271858621</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01993833835987806</v>
+        <v>0.01926858591948886</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04180171535624609</v>
+        <v>0.0420700623457906</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -7776,19 +7776,19 @@
         <v>63575</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>48916</v>
+        <v>48424</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>81640</v>
+        <v>82047</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03210235609140571</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.024700078235824</v>
+        <v>0.02445199669623098</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04122433200952186</v>
+        <v>0.0414301379536426</v>
       </c>
     </row>
     <row r="29">
@@ -7805,19 +7805,19 @@
         <v>5004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1502</v>
+        <v>1225</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12477</v>
+        <v>12871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005342213621808917</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001603370951577284</v>
+        <v>0.001308245706675943</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01332136026470339</v>
+        <v>0.01374227538856629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -7839,19 +7839,19 @@
         <v>5004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13140</v>
+        <v>11800</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002526550228422398</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0006159843337849775</v>
+        <v>0.0006185313327893757</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006635048739270184</v>
+        <v>0.00595856340098897</v>
       </c>
     </row>
     <row r="30">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6446</v>
+        <v>5923</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001254979705005136</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.006882834867431461</v>
+        <v>0.006324076312168232</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8040</v>
+        <v>7150</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001932481679794397</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007703111041759633</v>
+        <v>0.006850083656311193</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -7910,19 +7910,19 @@
         <v>3193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8613</v>
+        <v>8827</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001612063424303366</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0004942879705725589</v>
+        <v>0.0004922166663547396</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004349088361801899</v>
+        <v>0.004457219685175896</v>
       </c>
     </row>
     <row r="31">
@@ -7939,19 +7939,19 @@
         <v>866774</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>849614</v>
+        <v>847977</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>881829</v>
+        <v>881548</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9254442228381483</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9071233750574668</v>
+        <v>0.9053754034341873</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9415180087920587</v>
+        <v>0.941218578096952</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>908</v>
@@ -7960,19 +7960,19 @@
         <v>986813</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>970572</v>
+        <v>970180</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>999992</v>
+        <v>1000847</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9454233340032153</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9298631265372922</v>
+        <v>0.929487983679994</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.958049942445408</v>
+        <v>0.9588691020213848</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1772</v>
@@ -7981,19 +7981,19 @@
         <v>1853587</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1830065</v>
+        <v>1831691</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1875863</v>
+        <v>1876216</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9359743992635589</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9240968944341857</v>
+        <v>0.9249178747745034</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9472229704908779</v>
+        <v>0.9474008609878097</v>
       </c>
     </row>
     <row r="32">
@@ -8014,19 +8014,19 @@
         <v>19148</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10917</v>
+        <v>10915</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31625</v>
+        <v>31778</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005649263586628006</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003220886151698827</v>
+        <v>0.003220187061053143</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.00933038880415319</v>
+        <v>0.009375651668603633</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8035,19 +8035,19 @@
         <v>12787</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6564</v>
+        <v>6894</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21277</v>
+        <v>21033</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003613345933531052</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001854971644345505</v>
+        <v>0.001948241373479634</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006012708260401874</v>
+        <v>0.005943768694964399</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -8056,19 +8056,19 @@
         <v>31935</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21388</v>
+        <v>22092</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45942</v>
+        <v>46444</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004609368116093737</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003087086488226063</v>
+        <v>0.003188691350761366</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006631147953833093</v>
+        <v>0.006703680056338122</v>
       </c>
     </row>
     <row r="33">
@@ -8085,19 +8085,19 @@
         <v>113939</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>94607</v>
+        <v>92077</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>137731</v>
+        <v>134708</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03361595289095445</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02791240989728044</v>
+        <v>0.02716589645833522</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04063544269262302</v>
+        <v>0.03974342353299454</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>144</v>
@@ -8106,19 +8106,19 @@
         <v>157755</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>130636</v>
+        <v>134850</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>182674</v>
+        <v>184637</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04457933184540655</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0369159570874145</v>
+        <v>0.03810668278311024</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05162134579567989</v>
+        <v>0.05217590359801395</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>249</v>
@@ -8127,19 +8127,19 @@
         <v>271694</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>238253</v>
+        <v>241913</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>306806</v>
+        <v>307656</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03921577079083025</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0343889600039972</v>
+        <v>0.03491728187818138</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04428385899146866</v>
+        <v>0.04440655538373068</v>
       </c>
     </row>
     <row r="34">
@@ -8156,19 +8156,19 @@
         <v>77242</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>61445</v>
+        <v>59382</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>95348</v>
+        <v>98113</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02278900215447609</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01812832959975655</v>
+        <v>0.01751972059232306</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02813095491986593</v>
+        <v>0.02894674940122746</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -8177,19 +8177,19 @@
         <v>45944</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>34087</v>
+        <v>33027</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61146</v>
+        <v>60068</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01298307576716953</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009632618333805932</v>
+        <v>0.009333127085749073</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01727917824239959</v>
+        <v>0.01697451039420108</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>115</v>
@@ -8198,19 +8198,19 @@
         <v>123186</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>101853</v>
+        <v>104096</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>146923</v>
+        <v>148861</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01778038187995708</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01470134099278013</v>
+        <v>0.01502506327659705</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02120661281498417</v>
+        <v>0.02148627272066548</v>
       </c>
     </row>
     <row r="35">
@@ -8227,19 +8227,19 @@
         <v>70242</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54153</v>
+        <v>55574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>87766</v>
+        <v>87958</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02072388610317327</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01597686030549271</v>
+        <v>0.01639614548125106</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02589410456963462</v>
+        <v>0.02595075834851577</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>55</v>
@@ -8248,19 +8248,19 @@
         <v>59593</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>46892</v>
+        <v>45420</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78534</v>
+        <v>76726</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01684021372343114</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01325096155982227</v>
+        <v>0.0128351294274809</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02219278475277642</v>
+        <v>0.02168162697612598</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>119</v>
@@ -8269,19 +8269,19 @@
         <v>129835</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107868</v>
+        <v>108989</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>154724</v>
+        <v>155830</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01874020404678483</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01556939689635597</v>
+        <v>0.01573129365782322</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02233252796408997</v>
+        <v>0.02249227103648036</v>
       </c>
     </row>
     <row r="36">
@@ -8298,19 +8298,19 @@
         <v>6767</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001996612670066702</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -8319,19 +8319,19 @@
         <v>3144</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.000888577175965079</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -8340,19 +8340,19 @@
         <v>9912</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001430656041243952</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
     </row>
     <row r="37">
@@ -8369,19 +8369,19 @@
         <v>3175</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8552</v>
+        <v>8304</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0009367469541172777</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0</v>
+        <v>0.0002789306939616092</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.002523127899279687</v>
+        <v>0.002449991700514465</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -8390,19 +8390,19 @@
         <v>3636</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10414</v>
+        <v>10783</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.001027493110629277</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0002767005973366226</v>
+        <v>0.0002761255156993614</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.002942795354232393</v>
+        <v>0.003047055187745011</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -8411,19 +8411,19 @@
         <v>6811</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2592</v>
+        <v>2967</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15089</v>
+        <v>15410</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.000983097805774601</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0003741318263511343</v>
+        <v>0.0004282424901095355</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.002177977797670813</v>
+        <v>0.002224212015881923</v>
       </c>
     </row>
     <row r="38">
@@ -8440,19 +8440,19 @@
         <v>3225373</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3196935</v>
+        <v>3196875</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3250491</v>
+        <v>3249779</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9515954647590791</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9432054401060885</v>
+        <v>0.9431875412654169</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9590063049403162</v>
+        <v>0.9587959736979185</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3217</v>
@@ -8461,19 +8461,19 @@
         <v>3414408</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3389743</v>
+        <v>3389783</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3433662</v>
+        <v>3436582</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9648662387426501</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9578962820092572</v>
+        <v>0.9579074994260827</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9703071076162629</v>
+        <v>0.9711322988752402</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6295</v>
@@ -8482,19 +8482,19 @@
         <v>6639782</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6601969</v>
+        <v>6605864</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6669972</v>
+        <v>6672429</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9583738419370593</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9529160318129805</v>
+        <v>0.9534782643318644</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9627314810165738</v>
+        <v>0.9630861192409064</v>
       </c>
     </row>
     <row r="39">
@@ -8755,19 +8755,19 @@
         <v>6225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2111</v>
+        <v>2016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15042</v>
+        <v>14761</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009012842731777446</v>
+        <v>0.009012842731777444</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00305658169613313</v>
+        <v>0.002918569141254229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02177761279559445</v>
+        <v>0.02137068650212057</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -8776,19 +8776,19 @@
         <v>3463</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7772</v>
+        <v>7683</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004723877871303593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001829258392559764</v>
+        <v>0.00182647234314958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01060106702541874</v>
+        <v>0.01047996845996328</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -8797,19 +8797,19 @@
         <v>9688</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5016</v>
+        <v>4563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19679</v>
+        <v>19004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006804494331624326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003523219524590428</v>
+        <v>0.003204424811301871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01382125725596059</v>
+        <v>0.01334718554894866</v>
       </c>
     </row>
     <row r="5">
@@ -8826,19 +8826,19 @@
         <v>19161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12157</v>
+        <v>12482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29420</v>
+        <v>29861</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0277413899577132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01760032624895658</v>
+        <v>0.01807189072723942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04259367856739438</v>
+        <v>0.04323248813160462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -8847,19 +8847,19 @@
         <v>24756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17929</v>
+        <v>17713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34273</v>
+        <v>34290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03376889066132827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02445607990914427</v>
+        <v>0.02416167758178093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04674953340608563</v>
+        <v>0.04677247525951422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -8868,19 +8868,19 @@
         <v>43918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32562</v>
+        <v>33976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56830</v>
+        <v>59161</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03084489440896663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02286934007978132</v>
+        <v>0.02386284482085038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03991343420163324</v>
+        <v>0.04155078681938405</v>
       </c>
     </row>
     <row r="6">
@@ -8897,19 +8897,19 @@
         <v>10881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6068</v>
+        <v>5941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19517</v>
+        <v>19436</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01575337900666306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008785353396069926</v>
+        <v>0.008601466712288005</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02825652975854232</v>
+        <v>0.02813847373194523</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -8918,19 +8918,19 @@
         <v>9165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5499</v>
+        <v>5677</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14565</v>
+        <v>14252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01250086132301085</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007500237116142196</v>
+        <v>0.007744153713904936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01986698749208492</v>
+        <v>0.01944098287392669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -8939,19 +8939,19 @@
         <v>20046</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14217</v>
+        <v>13906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29645</v>
+        <v>29839</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01407868768676973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009984762802509562</v>
+        <v>0.009766672086380304</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02082044272507054</v>
+        <v>0.02095693661683135</v>
       </c>
     </row>
     <row r="7">
@@ -8968,19 +8968,19 @@
         <v>9168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3887</v>
+        <v>3898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18342</v>
+        <v>18793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0132731259591753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005627671485440527</v>
+        <v>0.005642749109108213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02655518356376179</v>
+        <v>0.02720822571646569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -8989,19 +8989,19 @@
         <v>7800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4307</v>
+        <v>4302</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13242</v>
+        <v>12664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01064004870275225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005874925254866149</v>
+        <v>0.005868084640734834</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01806267562805296</v>
+        <v>0.01727466135627654</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -9010,19 +9010,19 @@
         <v>16968</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10356</v>
+        <v>10626</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26809</v>
+        <v>27954</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01191737879503113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007273545188210701</v>
+        <v>0.007463334394629702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01882858114613687</v>
+        <v>0.01963296241113297</v>
       </c>
     </row>
     <row r="8">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5336</v>
+        <v>5337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001524467500221747</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.00772579659579548</v>
+        <v>0.0077265422200309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4565</v>
+        <v>5272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0007395332620736227</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.00320623828427947</v>
+        <v>0.00370264438200895</v>
       </c>
     </row>
     <row r="9">
@@ -9115,19 +9115,19 @@
         <v>2223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6467</v>
+        <v>6085</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003032666012240826</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0007714241007379852</v>
+        <v>0.0007784249273027024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008821300409295523</v>
+        <v>0.008299760981402053</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -9136,19 +9136,19 @@
         <v>2223</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6792</v>
+        <v>6661</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00156149172450689</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0004026792992054289</v>
+        <v>0.00038971195208406</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004770221117487604</v>
+        <v>0.004678519136386332</v>
       </c>
     </row>
     <row r="10">
@@ -9165,19 +9165,19 @@
         <v>672584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>662587</v>
+        <v>661535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>679639</v>
+        <v>679698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9737572373245501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9592846108381144</v>
+        <v>0.9577608446276279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9839718962271389</v>
+        <v>0.9840567069645618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1219</v>
@@ -9186,19 +9186,19 @@
         <v>723781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>718604</v>
+        <v>718854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>727595</v>
+        <v>727710</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9872703243126133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9802090399493559</v>
+        <v>0.9805505858170929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9924734035765991</v>
+        <v>0.9926298594946774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1930</v>
@@ -9207,19 +9207,19 @@
         <v>1396365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1383286</v>
+        <v>1384452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1404245</v>
+        <v>1404596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9807150010279168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9715297638045169</v>
+        <v>0.9723486246295752</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9862495278217599</v>
+        <v>0.9864962990464138</v>
       </c>
     </row>
     <row r="11">
@@ -9240,19 +9240,19 @@
         <v>13911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7293</v>
+        <v>7332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25902</v>
+        <v>26091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01326258073292972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006953058210587815</v>
+        <v>0.006989852308719804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02469419263838727</v>
+        <v>0.02487389727795251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -9261,19 +9261,19 @@
         <v>2896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7406</v>
+        <v>7186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002703986991477856</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0007113032067272031</v>
+        <v>0.0007203745262135929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.006916176924940128</v>
+        <v>0.006710787271933058</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -9282,19 +9282,19 @@
         <v>16807</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9300</v>
+        <v>9459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27727</v>
+        <v>29409</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007928689408600264</v>
+        <v>0.007928689408600266</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004387333566424927</v>
+        <v>0.004462343088468242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01308051309933735</v>
+        <v>0.01387388326980433</v>
       </c>
     </row>
     <row r="12">
@@ -9311,19 +9311,19 @@
         <v>59947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42456</v>
+        <v>44664</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80082</v>
+        <v>83133</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05715111524366508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04047630978053449</v>
+        <v>0.04258123474967481</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07634762855933974</v>
+        <v>0.07925606638207996</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -9332,19 +9332,19 @@
         <v>70205</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56669</v>
+        <v>57097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>87456</v>
+        <v>85657</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06556058417380134</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05292013277793454</v>
+        <v>0.05332016246776142</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08167065967690272</v>
+        <v>0.07999042209955778</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>142</v>
@@ -9353,19 +9353,19 @@
         <v>130152</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106943</v>
+        <v>109993</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154287</v>
+        <v>157337</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06139933185915767</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05045060065867216</v>
+        <v>0.05188941163586786</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07278552575503271</v>
+        <v>0.07422424804351306</v>
       </c>
     </row>
     <row r="13">
@@ -9382,19 +9382,19 @@
         <v>25103</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16415</v>
+        <v>16244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38406</v>
+        <v>37448</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02393208078442328</v>
+        <v>0.02393208078442327</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01564950031159288</v>
+        <v>0.01548618805066825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03661508410639472</v>
+        <v>0.03570182771886295</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -9403,19 +9403,19 @@
         <v>26109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18131</v>
+        <v>19395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34855</v>
+        <v>35442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02438194662776748</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01693194968144144</v>
+        <v>0.01811216098937193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.032549193844616</v>
+        <v>0.03309749210654545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -9424,19 +9424,19 @@
         <v>51212</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39894</v>
+        <v>40438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66878</v>
+        <v>66770</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02415933979046927</v>
+        <v>0.02415933979046928</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01881986441087987</v>
+        <v>0.01907691071351597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03154970482933005</v>
+        <v>0.03149897681606449</v>
       </c>
     </row>
     <row r="14">
@@ -9453,19 +9453,19 @@
         <v>34059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21346</v>
+        <v>22288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51487</v>
+        <v>53789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03247070300986132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02035034342824045</v>
+        <v>0.02124904761434842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04908613905417731</v>
+        <v>0.05128005786095719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -9474,19 +9474,19 @@
         <v>21974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14711</v>
+        <v>15303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31270</v>
+        <v>30483</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02052010030369547</v>
+        <v>0.02052010030369546</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01373748806388929</v>
+        <v>0.01429022687075167</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02920179059500065</v>
+        <v>0.02846628437771421</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -9495,19 +9495,19 @@
         <v>56033</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41970</v>
+        <v>41503</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79186</v>
+        <v>76889</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02643360965673065</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01979951915545871</v>
+        <v>0.01957908178710191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0373561148521076</v>
+        <v>0.03627266713702393</v>
       </c>
     </row>
     <row r="15">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5708</v>
+        <v>5790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001090212924627044</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.005441502896870203</v>
+        <v>0.005519664512184122</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -9545,19 +9545,19 @@
         <v>2645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6829</v>
+        <v>7202</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002470420178197205</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0006746270317627684</v>
+        <v>0.0006632214352114199</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.006377026082672817</v>
+        <v>0.006725692318730337</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -9566,19 +9566,19 @@
         <v>3789</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1219</v>
+        <v>1152</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8714</v>
+        <v>9267</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001787453075717673</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.000574902785869405</v>
+        <v>0.0005433990022082246</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004110768970123519</v>
+        <v>0.00437192315984117</v>
       </c>
     </row>
     <row r="16">
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6181</v>
+        <v>5027</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001161281369634414</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005892758659260132</v>
+        <v>0.004792859371155401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4615</v>
+        <v>4179</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001085260591870335</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.004309596955118814</v>
+        <v>0.003902484191740047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9637,19 +9637,19 @@
         <v>2380</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7208</v>
+        <v>6833</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001122877906359499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0001937147256093255</v>
+        <v>0.0001914193468356197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003400458809893722</v>
+        <v>0.003223279068885915</v>
       </c>
     </row>
     <row r="17">
@@ -9666,19 +9666,19 @@
         <v>1012242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>996675</v>
+        <v>996176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1025252</v>
+        <v>1024662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9650355776758455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9501945747447642</v>
+        <v>0.9497188133445784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9774383384811417</v>
+        <v>0.9768762439425153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1468</v>
@@ -9687,19 +9687,19 @@
         <v>1038505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1028025</v>
+        <v>1027610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1046009</v>
+        <v>1046133</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9698059771778426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9600192547290033</v>
+        <v>0.9596315325462171</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9768139029520533</v>
+        <v>0.9769291730295608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2401</v>
@@ -9708,19 +9708,19 @@
         <v>2050747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2030426</v>
+        <v>2032109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2065752</v>
+        <v>2065366</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9674454433398112</v>
+        <v>0.9674454433398111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9578588259128562</v>
+        <v>0.9586525450806479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9745237936187328</v>
+        <v>0.9743420086639761</v>
       </c>
     </row>
     <row r="18">
@@ -9741,19 +9741,19 @@
         <v>9064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3718</v>
+        <v>4321</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17265</v>
+        <v>17037</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0112861170015567</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004629672661435977</v>
+        <v>0.005380816138957868</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02149880396467541</v>
+        <v>0.02121455422301114</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -9762,19 +9762,19 @@
         <v>2098</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5443</v>
+        <v>6381</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002582511120979133</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0008148107051462356</v>
+        <v>0.0008208715705698415</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.006701183643584317</v>
+        <v>0.007856079679394178</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -9783,19 +9783,19 @@
         <v>11161</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5834</v>
+        <v>5597</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18830</v>
+        <v>20016</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006909567240900562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003611848095931294</v>
+        <v>0.003464713561635073</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01165704044569253</v>
+        <v>0.01239137187394586</v>
       </c>
     </row>
     <row r="19">
@@ -9812,19 +9812,19 @@
         <v>57862</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43838</v>
+        <v>43635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74626</v>
+        <v>75769</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07205025483299315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05458790786882956</v>
+        <v>0.05433463949325592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09292550454654187</v>
+        <v>0.09434907506595126</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -9833,19 +9833,19 @@
         <v>77868</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62713</v>
+        <v>63982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94862</v>
+        <v>96646</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09586539798954337</v>
+        <v>0.09586539798954336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07720807044160755</v>
+        <v>0.07876997323776383</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1167877458589829</v>
+        <v>0.1189843491725926</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -9854,19 +9854,19 @@
         <v>135729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115828</v>
+        <v>114438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159625</v>
+        <v>158557</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08402553961862214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07170508445793337</v>
+        <v>0.07084464401128833</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09881845851111314</v>
+        <v>0.09815735999648365</v>
       </c>
     </row>
     <row r="20">
@@ -9883,19 +9883,19 @@
         <v>31601</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20567</v>
+        <v>20418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49540</v>
+        <v>49145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03934952039992066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02561076074345115</v>
+        <v>0.02542512068779375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06168754020318933</v>
+        <v>0.06119556432742056</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -9904,19 +9904,19 @@
         <v>12758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7951</v>
+        <v>7895</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19942</v>
+        <v>19657</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01570624788130048</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009788891363466208</v>
+        <v>0.009719869940491227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02455084386510274</v>
+        <v>0.02420053398442987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -9925,19 +9925,19 @@
         <v>44358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30586</v>
+        <v>30610</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61896</v>
+        <v>62330</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02746065961023283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0189348840623389</v>
+        <v>0.01894994451890264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03831803898258533</v>
+        <v>0.03858634083226969</v>
       </c>
     </row>
     <row r="21">
@@ -9954,19 +9954,19 @@
         <v>19583</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11208</v>
+        <v>11171</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33703</v>
+        <v>35964</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0243856273157037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01395603087103384</v>
+        <v>0.01390980038796768</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0419677601929175</v>
+        <v>0.04478341104621011</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -9975,19 +9975,19 @@
         <v>29254</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20706</v>
+        <v>20962</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40930</v>
+        <v>40814</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03601502693250174</v>
+        <v>0.03601502693250173</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02549160847533396</v>
+        <v>0.0258066339710997</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05039053757304853</v>
+        <v>0.05024810050601192</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -9996,19 +9996,19 @@
         <v>48837</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36924</v>
+        <v>36036</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66034</v>
+        <v>66146</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03023339280598743</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02285830652117384</v>
+        <v>0.02230880426867379</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04087982934711702</v>
+        <v>0.04094886515540857</v>
       </c>
     </row>
     <row r="22">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3607</v>
+        <v>3571</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0008721466347490161</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0044407001258967</v>
+        <v>0.004396946248738204</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3595</v>
+        <v>3913</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004385530776486134</v>
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002225542329263435</v>
+        <v>0.002422277222302023</v>
       </c>
     </row>
     <row r="23">
@@ -10088,19 +10088,19 @@
         <v>6875</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2496</v>
+        <v>2322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14904</v>
+        <v>15409</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008560667166436412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00310778027777425</v>
+        <v>0.00289183666861237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01855832357534969</v>
+        <v>0.01918735091283794</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -10109,19 +10109,19 @@
         <v>3827</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>879</v>
+        <v>1385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8287</v>
+        <v>8337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004711633648479429</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001082089122514054</v>
+        <v>0.001705017340858888</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01020181831723149</v>
+        <v>0.01026402425495473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -10130,19 +10130,19 @@
         <v>10702</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5189</v>
+        <v>5223</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18933</v>
+        <v>19863</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006625206513356584</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00321235856937718</v>
+        <v>0.003233163444509083</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01172101028053983</v>
+        <v>0.01229631032910894</v>
       </c>
     </row>
     <row r="24">
@@ -10159,19 +10159,19 @@
         <v>771973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>755858</v>
+        <v>754993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>784161</v>
+        <v>783589</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9612731867829289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9412073422074613</v>
+        <v>0.9401300682552421</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9764510780855986</v>
+        <v>0.975738563861689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1016</v>
@@ -10180,19 +10180,19 @@
         <v>789400</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>780234</v>
+        <v>779153</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>796276</v>
+        <v>796492</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9718572490418613</v>
+        <v>0.971857249041861</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9605728880448644</v>
+        <v>0.9592420082458439</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9803227003639416</v>
+        <v>0.9805891554555045</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1670</v>
@@ -10201,19 +10201,19 @@
         <v>1561372</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1542482</v>
+        <v>1542138</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1576576</v>
+        <v>1575625</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.966595311403653</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9549010193765819</v>
+        <v>0.9546882195890078</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9760073740556952</v>
+        <v>0.9754188459933203</v>
       </c>
     </row>
     <row r="25">
@@ -10234,19 +10234,19 @@
         <v>23467</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15091</v>
+        <v>14371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37356</v>
+        <v>36324</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02370258526624681</v>
+        <v>0.0237025852662468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01524246564652582</v>
+        <v>0.01451510856911037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03773073949140256</v>
+        <v>0.03668873701956214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -10255,19 +10255,19 @@
         <v>16299</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9751</v>
+        <v>10245</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24672</v>
+        <v>25456</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01458836413712362</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008727257017019855</v>
+        <v>0.009170227504757777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02208310646010439</v>
+        <v>0.02278461709316589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -10276,19 +10276,19 @@
         <v>39766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28763</v>
+        <v>28157</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55482</v>
+        <v>53977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01887042295453129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01364935367992932</v>
+        <v>0.01336140737314123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02632821431596632</v>
+        <v>0.02561395485066587</v>
       </c>
     </row>
     <row r="26">
@@ -10305,19 +10305,19 @@
         <v>95176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76664</v>
+        <v>78624</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115587</v>
+        <v>116506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09613152326037074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0774330943616898</v>
+        <v>0.07941334090988654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1167473259774472</v>
+        <v>0.1176753677459355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>199</v>
@@ -10326,19 +10326,19 @@
         <v>141941</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123090</v>
+        <v>123961</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162292</v>
+        <v>164844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1270442306752536</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.110171741658508</v>
+        <v>0.1109518853026532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1452599921507834</v>
+        <v>0.1475438793337135</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>300</v>
@@ -10347,19 +10347,19 @@
         <v>237117</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>212071</v>
+        <v>210181</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267268</v>
+        <v>263446</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1125207700876151</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1006354167722776</v>
+        <v>0.09973878105823221</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1268288829682145</v>
+        <v>0.1250149570050981</v>
       </c>
     </row>
     <row r="27">
@@ -10376,19 +10376,19 @@
         <v>25001</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16427</v>
+        <v>16906</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>34700</v>
+        <v>36063</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02525196829153035</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01659144106532675</v>
+        <v>0.01707531562951693</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03504861989111909</v>
+        <v>0.0364253954322623</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>29</v>
@@ -10397,19 +10397,19 @@
         <v>16447</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10767</v>
+        <v>10791</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23160</v>
+        <v>23225</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01472082433313779</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009637246577564195</v>
+        <v>0.009658786185733945</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02072960806088157</v>
+        <v>0.0207877630565243</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -10418,19 +10418,19 @@
         <v>41448</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>32310</v>
+        <v>32335</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53073</v>
+        <v>53355</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01966858423555335</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01533214962582543</v>
+        <v>0.01534430424773288</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02518498833856547</v>
+        <v>0.02531879352680039</v>
       </c>
     </row>
     <row r="28">
@@ -10447,19 +10447,19 @@
         <v>40402</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29601</v>
+        <v>30427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54389</v>
+        <v>54501</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04080727310340591</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02989778516877967</v>
+        <v>0.03073210292572611</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0549344875740292</v>
+        <v>0.05504757205518648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -10468,19 +10468,19 @@
         <v>35233</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25468</v>
+        <v>26055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47493</v>
+        <v>49013</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03153562384146767</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02279509357568314</v>
+        <v>0.02332066775694764</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04250887092380527</v>
+        <v>0.04386904946584604</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>97</v>
@@ -10489,19 +10489,19 @@
         <v>75635</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61106</v>
+        <v>61291</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>92919</v>
+        <v>94960</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03589164581103924</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02899700134729174</v>
+        <v>0.02908509090636693</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04409370659804542</v>
+        <v>0.04506201400950122</v>
       </c>
     </row>
     <row r="29">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11891</v>
+        <v>11584</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002748254613911727</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01201064652334112</v>
+        <v>0.01170040940528259</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -10539,19 +10539,19 @@
         <v>3306</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1207</v>
+        <v>629</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9190</v>
+        <v>8056</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00295902018933364</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001080161767388125</v>
+        <v>0.0005627748049937778</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008225922642057347</v>
+        <v>0.007210190801920523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -10560,19 +10560,19 @@
         <v>6027</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2300</v>
+        <v>2404</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13862</v>
+        <v>14799</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.002859997949489408</v>
+        <v>0.002859997949489407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001091401626349055</v>
+        <v>0.00114065623689215</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006577959138102771</v>
+        <v>0.007022832637444431</v>
       </c>
     </row>
     <row r="30">
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4775</v>
+        <v>5573</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0009339909222090754</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.004822617648502597</v>
+        <v>0.005628539047153669</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -10610,19 +10610,19 @@
         <v>5265</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1509</v>
+        <v>1392</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16162</v>
+        <v>19376</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004712241883836354</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001350641411505415</v>
+        <v>0.001245735133900089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01446558789881697</v>
+        <v>0.01734252504807416</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -10631,19 +10631,19 @@
         <v>6189</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1858</v>
+        <v>1840</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17711</v>
+        <v>18384</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.002937137613772246</v>
+        <v>0.002937137613772247</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.000881884774640914</v>
+        <v>0.0008731027809181158</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008404392221021684</v>
+        <v>0.008723942993168336</v>
       </c>
     </row>
     <row r="31">
@@ -10660,19 +10660,19 @@
         <v>941395</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>925990</v>
+        <v>925270</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>954278</v>
+        <v>953492</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.9508441099374129</v>
+        <v>0.9508441099374128</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9352843785455225</v>
+        <v>0.9345580132582477</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9638572456970311</v>
+        <v>0.9630634095207719</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1491</v>
@@ -10681,19 +10681,19 @@
         <v>1067531</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1053005</v>
+        <v>1052447</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1079279</v>
+        <v>1078627</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9554959470386953</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9424942608841012</v>
+        <v>0.9419947985959742</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9660113593078098</v>
+        <v>0.9654273737001388</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2440</v>
@@ -10702,19 +10702,19 @@
         <v>2008925</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1987333</v>
+        <v>1988127</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2025134</v>
+        <v>2025001</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9533104130479695</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9430642248521359</v>
+        <v>0.9434406648516006</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9610018768541567</v>
+        <v>0.9609387751071421</v>
       </c>
     </row>
     <row r="32">
@@ -10735,19 +10735,19 @@
         <v>52667</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38246</v>
+        <v>38398</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71246</v>
+        <v>71409</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01490822660153494</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01082612728360482</v>
+        <v>0.01086901119641544</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02016722027223251</v>
+        <v>0.02021345184349523</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -10756,19 +10756,19 @@
         <v>24755</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17435</v>
+        <v>17520</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34190</v>
+        <v>35239</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006630634290640126</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004669995825543813</v>
+        <v>0.004692614821932769</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009157651861230146</v>
+        <v>0.009438558716016378</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>75</v>
@@ -10777,19 +10777,19 @@
         <v>77422</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>60506</v>
+        <v>58709</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97550</v>
+        <v>97941</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0106551126435471</v>
+        <v>0.01065511264354709</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008327012584841753</v>
+        <v>0.008079650986775846</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01342514743258105</v>
+        <v>0.01347898649604896</v>
       </c>
     </row>
     <row r="33">
@@ -10806,19 +10806,19 @@
         <v>232146</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>202060</v>
+        <v>201765</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>264991</v>
+        <v>269990</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.06571227747025506</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05719604379402483</v>
+        <v>0.05711241735388319</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07500952627352894</v>
+        <v>0.0764245130160851</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>434</v>
@@ -10827,19 +10827,19 @@
         <v>314769</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>285830</v>
+        <v>286957</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>346085</v>
+        <v>346121</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08431025776861623</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07655904837284976</v>
+        <v>0.07686084181394559</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09269819528655363</v>
+        <v>0.09270786462117087</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>654</v>
@@ -10848,19 +10848,19 @@
         <v>546915</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>503502</v>
+        <v>503933</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>592037</v>
+        <v>591507</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.07526811528232438</v>
+        <v>0.07526811528232434</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0692934127881901</v>
+        <v>0.06935280074348144</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08147794043465999</v>
+        <v>0.0814050508829605</v>
       </c>
     </row>
     <row r="34">
@@ -10877,19 +10877,19 @@
         <v>92585</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72492</v>
+        <v>72081</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>115107</v>
+        <v>113007</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0262076352512977</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02052006300126188</v>
+        <v>0.02040361820339289</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03258275211582829</v>
+        <v>0.03198836988934792</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>107</v>
@@ -10898,19 +10898,19 @@
         <v>64478</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>52921</v>
+        <v>52814</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>77347</v>
+        <v>77442</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01727031605237915</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01417469314610329</v>
+        <v>0.01414620878220927</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0207172151747542</v>
+        <v>0.02074277396815448</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>197</v>
@@ -10919,19 +10919,19 @@
         <v>157063</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>135751</v>
+        <v>134563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>184423</v>
+        <v>183116</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02161554668203062</v>
+        <v>0.0216155466820306</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01868242915104561</v>
+        <v>0.01851894443806071</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02538084475215106</v>
+        <v>0.02520091799938863</v>
       </c>
     </row>
     <row r="35">
@@ -10948,19 +10948,19 @@
         <v>103212</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81484</v>
+        <v>82793</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>129432</v>
+        <v>129414</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02921570512222821</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02306512664005059</v>
+        <v>0.0234356419320887</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03663773220104943</v>
+        <v>0.0366325391653606</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>130</v>
@@ -10969,19 +10969,19 @@
         <v>94261</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>78525</v>
+        <v>79057</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>113840</v>
+        <v>113825</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.02524756570201811</v>
+        <v>0.02524756570201812</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0210326492188282</v>
+        <v>0.02117527927408592</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03049189505777665</v>
+        <v>0.03048789942205974</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>227</v>
@@ -10990,19 +10990,19 @@
         <v>197473</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>170763</v>
+        <v>171078</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>226035</v>
+        <v>232490</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.02717683336804382</v>
+        <v>0.02717683336804381</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02350089482429639</v>
+        <v>0.02354427146744333</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03110763019590753</v>
+        <v>0.03199598862097031</v>
       </c>
     </row>
     <row r="36">
@@ -11019,19 +11019,19 @@
         <v>4917</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001391956367994032</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -11040,19 +11040,19 @@
         <v>6660</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3123</v>
+        <v>2841</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12791</v>
+        <v>12494</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001783813711706903</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0008363908952351344</v>
+        <v>0.0007610016442306122</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.00342592607366459</v>
+        <v>0.00334646111117109</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -11061,19 +11061,19 @@
         <v>11577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6621</v>
+        <v>5909</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>21017</v>
+        <v>21031</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001593296791089246</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0009112473460997364</v>
+        <v>0.000813232716130263</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002892399386484424</v>
+        <v>0.002894287385223187</v>
       </c>
     </row>
     <row r="37">
@@ -11090,19 +11090,19 @@
         <v>9018</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3961</v>
+        <v>3763</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17188</v>
+        <v>17637</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002552574348045028</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.001121258911877473</v>
+        <v>0.001065060181933804</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.004865304655559041</v>
+        <v>0.0049924209192243</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -11111,19 +11111,19 @@
         <v>12477</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6681</v>
+        <v>7085</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24540</v>
+        <v>24554</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003342006413986021</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001789387135869042</v>
+        <v>0.00189758451458875</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.006572904080503196</v>
+        <v>0.006576674076684334</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -11132,19 +11132,19 @@
         <v>21495</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13232</v>
+        <v>13359</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35003</v>
+        <v>34510</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.002958192843427759</v>
+        <v>0.002958192843427758</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001821082687366691</v>
+        <v>0.001838478230176474</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.004817153789041097</v>
+        <v>0.004749340803292174</v>
       </c>
     </row>
     <row r="38">
@@ -11161,19 +11161,19 @@
         <v>3398193</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3370269</v>
+        <v>3370966</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3422412</v>
+        <v>3422207</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9619083425747701</v>
+        <v>0.9619083425747702</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9540040670453275</v>
+        <v>0.9542014120659532</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9687639038014335</v>
+        <v>0.9687058471535476</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5194</v>
@@ -11182,19 +11182,19 @@
         <v>3619216</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3599481</v>
+        <v>3597524</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3637127</v>
+        <v>3636882</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9693992736899043</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9641132745697284</v>
+        <v>0.9635891255697051</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9741966838319767</v>
+        <v>0.9741308580848852</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8441</v>
@@ -11203,19 +11203,19 @@
         <v>7017410</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6980873</v>
+        <v>6988000</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7046995</v>
+        <v>7050349</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9657572617396064</v>
+        <v>0.9657572617396059</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9607290364309763</v>
+        <v>0.9617098517384145</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9698289288510861</v>
+        <v>0.9702904492206458</v>
       </c>
     </row>
     <row r="39">
